--- a/bookkeeper-testing2.xlsx
+++ b/bookkeeper-testing2.xlsx
@@ -1098,7 +1098,7 @@
         <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>20.0</v>
@@ -1139,7 +1139,7 @@
         <v>5.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>25.0</v>
@@ -1180,7 +1180,7 @@
         <v>5.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>25.0</v>
@@ -1221,7 +1221,7 @@
         <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>10.0</v>
@@ -1262,7 +1262,7 @@
         <v>15.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" t="n">
         <v>50.0</v>
@@ -1344,7 +1344,7 @@
         <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>20.0</v>
@@ -1426,7 +1426,7 @@
         <v>5.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
         <v>270.0</v>
@@ -1508,7 +1508,7 @@
         <v>5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>40.0</v>
@@ -1549,7 +1549,7 @@
         <v>5.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>25.0</v>
@@ -1631,7 +1631,7 @@
         <v>15.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n">
         <v>75.0</v>
@@ -1672,7 +1672,7 @@
         <v>5.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
         <v>15.0</v>
@@ -1877,7 +1877,7 @@
         <v>10.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
         <v>10.0</v>
@@ -1959,7 +1959,7 @@
         <v>5.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
         <v>15.0</v>
@@ -2082,7 +2082,7 @@
         <v>25.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n">
         <v>130.0</v>
@@ -2656,7 +2656,7 @@
         <v>10.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
         <v>30.0</v>
@@ -2738,7 +2738,7 @@
         <v>10.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
         <v>85.0</v>
@@ -3148,7 +3148,7 @@
         <v>5.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" t="n">
         <v>25.0</v>
@@ -3189,7 +3189,7 @@
         <v>10.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G53" t="n">
         <v>225.0</v>
@@ -3271,7 +3271,7 @@
         <v>5.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G55" t="n">
         <v>180.0</v>
@@ -3312,7 +3312,7 @@
         <v>5.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="n">
         <v>15.0</v>
@@ -3394,7 +3394,7 @@
         <v>5.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
         <v>105.0</v>
@@ -3640,7 +3640,7 @@
         <v>10.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" t="n">
         <v>20.0</v>
@@ -3681,7 +3681,7 @@
         <v>30.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G65" t="n">
         <v>100.0</v>
@@ -3804,7 +3804,7 @@
         <v>5.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G68" t="n">
         <v>5.0</v>
@@ -3927,7 +3927,7 @@
         <v>10.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" t="n">
         <v>10.0</v>
@@ -4091,7 +4091,7 @@
         <v>5.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G75" t="n">
         <v>30.0</v>
@@ -4214,7 +4214,7 @@
         <v>5.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G78" t="n">
         <v>5.0</v>
@@ -4829,7 +4829,7 @@
         <v>5.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G93" t="n">
         <v>15.0</v>
@@ -4911,7 +4911,7 @@
         <v>5.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>15.0</v>
@@ -4952,7 +4952,7 @@
         <v>10.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G96" t="n">
         <v>935.0</v>
@@ -4993,7 +4993,7 @@
         <v>10.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G97" t="n">
         <v>75.0</v>
@@ -5034,7 +5034,7 @@
         <v>10.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G98" t="n">
         <v>10.0</v>
@@ -5075,7 +5075,7 @@
         <v>5.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
         <v>0.0</v>
@@ -5198,7 +5198,7 @@
         <v>5.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G102" t="n">
         <v>0.0</v>
@@ -5239,7 +5239,7 @@
         <v>15.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" t="n">
         <v>400.0</v>
@@ -5280,7 +5280,7 @@
         <v>5.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G104" t="n">
         <v>0.0</v>
@@ -5321,7 +5321,7 @@
         <v>10.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
         <v>40.0</v>
@@ -5362,7 +5362,7 @@
         <v>5.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G106" t="n">
         <v>15.0</v>
@@ -5567,7 +5567,7 @@
         <v>5.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
         <v>10.0</v>
@@ -5854,7 +5854,7 @@
         <v>5.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
         <v>45.0</v>
@@ -5936,7 +5936,7 @@
         <v>5.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G120" t="n">
         <v>20.0</v>
@@ -6469,7 +6469,7 @@
         <v>5.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G133" t="n">
         <v>15.0</v>
@@ -6674,7 +6674,7 @@
         <v>5.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G138" t="n">
         <v>20.0</v>
@@ -6715,7 +6715,7 @@
         <v>5.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G139" t="n">
         <v>40.0</v>
@@ -7863,7 +7863,7 @@
         <v>5.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G167" t="n">
         <v>5.0</v>
@@ -8109,7 +8109,7 @@
         <v>5.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G173" t="n">
         <v>5.0</v>
@@ -8560,7 +8560,7 @@
         <v>5.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G184" t="n">
         <v>10.0</v>
@@ -9749,7 +9749,7 @@
         <v>10.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G213" t="n">
         <v>40.0</v>
@@ -9790,7 +9790,7 @@
         <v>5.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G214" t="n">
         <v>45.0</v>
@@ -9831,7 +9831,7 @@
         <v>5.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
         <v>10.0</v>
@@ -9872,7 +9872,7 @@
         <v>5.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G216" t="n">
         <v>15.0</v>
@@ -10036,7 +10036,7 @@
         <v>5.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G220" t="n">
         <v>10.0</v>
@@ -10077,7 +10077,7 @@
         <v>5.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G221" t="n">
         <v>10.0</v>
@@ -10159,7 +10159,7 @@
         <v>15.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G223" t="n">
         <v>225.0</v>
@@ -10487,7 +10487,7 @@
         <v>15.0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G231" t="n">
         <v>1055.0</v>
@@ -11102,7 +11102,7 @@
         <v>5.0</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G246" t="n">
         <v>15.0</v>
@@ -11184,7 +11184,7 @@
         <v>5.0</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G248" t="n">
         <v>30.0</v>
@@ -11348,7 +11348,7 @@
         <v>10.0</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G252" t="n">
         <v>50.0</v>
@@ -11389,7 +11389,7 @@
         <v>5.0</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G253" t="n">
         <v>5.0</v>
@@ -11594,7 +11594,7 @@
         <v>5.0</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G258" t="n">
         <v>15.0</v>
@@ -11635,7 +11635,7 @@
         <v>5.0</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G259" t="n">
         <v>10.0</v>
@@ -11840,7 +11840,7 @@
         <v>5.0</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G264" t="n">
         <v>15.0</v>
@@ -12660,7 +12660,7 @@
         <v>5.0</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G284" t="n">
         <v>25.0</v>
@@ -12947,7 +12947,7 @@
         <v>5.0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G291" t="n">
         <v>40.0</v>
@@ -13234,7 +13234,7 @@
         <v>5.0</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G298" t="n">
         <v>435.0</v>
@@ -13398,7 +13398,7 @@
         <v>5.0</v>
       </c>
       <c r="F302" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G302" t="n">
         <v>10.0</v>
@@ -13439,7 +13439,7 @@
         <v>5.0</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G303" t="n">
         <v>40.0</v>
@@ -13521,7 +13521,7 @@
         <v>5.0</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G305" t="n">
         <v>10.0</v>
@@ -13562,7 +13562,7 @@
         <v>5.0</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G306" t="n">
         <v>25.0</v>
@@ -13603,7 +13603,7 @@
         <v>10.0</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G307" t="n">
         <v>40.0</v>
@@ -13767,7 +13767,7 @@
         <v>5.0</v>
       </c>
       <c r="F311" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G311" t="n">
         <v>5.0</v>
